--- a/biology/Botanique/Château_de_Kouskovo/Château_de_Kouskovo.xlsx
+++ b/biology/Botanique/Château_de_Kouskovo/Château_de_Kouskovo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Kouskovo</t>
+          <t>Château_de_Kouskovo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Kouskovo (en russe : Кусково) est un château des environs de Moscou, ancienne résidence d'été des comtes Chérémétiev construit au milieu du XVIIIe siècle. Il fait partie maintenant du district-est de la municipalité de Moscou. Il est entouré d'un jardin à la française qui lui vaut le surnom de Versailles moscovite. Ce parc de 300 hectares est l'un des lieux de promenade favoris des habitants de la capitale russe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Kouskovo</t>
+          <t>Château_de_Kouskovo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château datant de 1777 a la particularité d'être entièrement construit en bois recouvert de plâtre peint en rose et blanc imitant la pierre. Le portique classique central est orné du blason de la famille Cheremetiev sur son fronton. Une petite église de style baroque pétrinien, l'église du Saint-Sauveur, construite entre 1737 et 1739 avec un clocher néoclassique datant de 1792 se situe à l'entrée de la cour d'honneur.
 Le domaine de Kouskovo appartient aux Chérémétiev depuis le XVIe et au XVIIIe siècle au comte Boris Chérémétiev (1652-1719), immensément riche, diplomate et maréchal-de-camp pendant la Guerre du Nord qui s'illustra à la bataille de Poltava et qui acheta le domaine à son frère en 1715. Son fils Pierre (1713-1787) en hérite en 1719. Plus tard, encore plus fortuné que son père, il fait bâtir un somptueux palais à Saint-Pétersbourg sur la Fontanka et commence à transformer les lieux à partir des années 1750. Il remplace ainsi le petit manoir de Kouskovo à partir de 1769. Il apprécie ce domaine à moins d'une journée de voyage de l'ancienne capitale de la Russie impériale, où il peut se consacrer à sa passion du théâtre, grâce au théâtre construit pour sa troupe de serfs. Son fils Nicolas partage aussi cette passion et provoque d'ailleurs le scandale en se mariant avec l'une des comédiennes de sa compagnie personnelle. Le comte ne reçoit pas d'invités pour y passer des séjours, d'où l'absence de chambres d'invités. Il donne en revanche de fastueuses réceptions, où il invite des passionnés d'art comme lui.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Kouskovo</t>
+          <t>Château_de_Kouskovo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Le château</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château néoclassique est orné d'un portique à six colonnes auquel on accède par une rampe permettant aux carrosses, souvent tirés en grand équipage de huit chevaux, de faire entrer les hôtes.
 Le rez-de-chaussée comprend douze salons et deux petits appartements. Le vestibule est recouvert de plâtre imitant le marbre avec des vasques de Johannes Justus. Le grand salon comprend un poêle à la russe en faïence et une cheminée à l'occidentale; le salon des tapisseries est décoré de tapisseries flamandes du XVIIe siècle montrant des scènes de jardin, tandis que les fenêtres ouvrent sur le parc; la chambre d'honneur était utilisée uniquement comme pièce de réception; le cabinet du comte est décoré de boiseries hollandaises; le salon des portraits est orné de portraits de famille et de tableaux de maîtres français du XVIIIe siècle; la salle de bal blanc et or, la plus grande, est recouverte de miroirs; la salle de billard inclut un billard anglais du XVIIIe siècle et enfin la salle à manger comprend des fresques et tableaux illustrant la gloire des Chérémétiev.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Kouskovo</t>
+          <t>Château_de_Kouskovo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Le parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc à la française, élaboré entre 1750 et 1780, est rythmé par huit allées principales qui partagent les parterres de fleurs et les haies taillées en diagonale ou à angle droit. Il est orné de statues et de pavillons, ainsi que de bacs d'orangers et de myrthe taillés en cônes. Les allées convergent vers le pavillon de l'Ermitage, où le comte aimait à demeurer. Il ne se rendait en effet que le dimanche, les jours de fête et aux grandes occasions au château.
 Un jardin anglais avec des bosquets, des prairies et des pelouses conformément au goût de l'époque a été créé au nord du jardin, mais il n'existe plus.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Kouskovo</t>
+          <t>Château_de_Kouskovo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Le pavillon hollandais</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pavillon hollandais, près d'un étang, est le premier bâtiment construit pour le comte. Il est fait de briques à la flamande. Il abritait une cuisine au rez-de-chaussée et il est recouvert du sol au plafond de carreaux de Delft. L'étage est aussi décoré de carreaux de Delft avec un mobilier hollandais des plus simples.
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Kouskovo</t>
+          <t>Château_de_Kouskovo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>L'orangerie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orangerie (1761-1764) construite par Argounov n'abritait des orangers, des citronniers, et autres agrumes qu'à la belle saison, car ils étaient cultivés dans des serres, au fond du jardin. Elle servait plutôt de grande salle de banquet d'été. Elle est devenue une salle d'exposition du musée de porcelaine dans les années 1960 et recueille l'une des plus belles collections européennes.
 </t>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Kouskovo</t>
+          <t>Château_de_Kouskovo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Le musée des céramiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Outre les collections précitées, le musée rassemble des porcelaines issues de la collection de l'impératrice Alexandra, épouse de Nicolas II, et de celles provenant d'anciennes demeures aristocratiques. On y trouve :
 La section allemande, avec des pièces venant de Saxe, de Meissen, etc. du XVIIIe et du XIXe siècle
